--- a/moc_data.xlsx
+++ b/moc_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD02359-3765-4F58-A552-6D48D2270956}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +331,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>53.63194324576201</v>
+      </c>
+      <c r="B2">
+        <v>59.613313518171438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>78.486691304574578</v>
+      </c>
+      <c r="B3">
+        <v>72.530028314322806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>94.918730416448554</v>
+      </c>
+      <c r="B4">
+        <v>80.294763843209921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>111.79351904740416</v>
+      </c>
+      <c r="B5">
+        <v>87.754027900942958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>129.7956344149467</v>
+      </c>
+      <c r="B6">
+        <v>95.174652557836396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>149.37001427553867</v>
+      </c>
+      <c r="B7">
+        <v>102.67154217157351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>170.8932301192836</v>
+      </c>
+      <c r="B8">
+        <v>110.29809349679101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>194.73311864238482</v>
+      </c>
+      <c r="B9">
+        <v>118.07452690361883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>221.27723852371085</v>
+      </c>
+      <c r="B10">
+        <v>125.99813816483909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>250.9507883081364</v>
+      </c>
+      <c r="B11">
+        <v>134.04661829440482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>284.23093220033189</v>
+      </c>
+      <c r="B12">
+        <v>142.17801678043591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>321.66042839806977</v>
+      </c>
+      <c r="B13">
+        <v>150.32863238924617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>363.86205656024242</v>
+      </c>
+      <c r="B14">
+        <v>158.40926842420325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>411.55483002827003</v>
+      </c>
+      <c r="B15">
+        <v>166.29990987215484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>465.57281656215304</v>
+      </c>
+      <c r="B16">
+        <v>173.84266621131829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>526.88739348644356</v>
+      </c>
+      <c r="B17">
+        <v>180.83266592418224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>596.63386204558617</v>
+      </c>
+      <c r="B18">
+        <v>187.00643948272096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>676.14351949012485</v>
+      </c>
+      <c r="B19">
+        <v>192.02716081773431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>766.98253451320784</v>
+      </c>
+      <c r="B20">
+        <v>195.46591381996029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>870.99930250701914</v>
+      </c>
+      <c r="B21">
+        <v>196.77789127236366</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/moc_data.xlsx
+++ b/moc_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD02359-3765-4F58-A552-6D48D2270956}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD81689-A5DE-4759-B42C-B73B72B7ECD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,180 +332,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21.463000000000001</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>53.63194324576201</v>
+        <v>28.053080965393207</v>
       </c>
       <c r="B2">
-        <v>59.613313518171438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33.326211993745645</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>78.486691304574578</v>
+        <v>35.28954224549372</v>
       </c>
       <c r="B3">
-        <v>72.530028314322806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36.318370013781482</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>94.918730416448554</v>
+        <v>39.549820365004798</v>
       </c>
       <c r="B4">
-        <v>80.294763843209921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38.020342545362951</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>111.79351904740416</v>
+        <v>43.263867767364857</v>
       </c>
       <c r="B5">
-        <v>87.754027900942958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39.46974498009412</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>129.7956344149467</v>
+        <v>46.700719298093574</v>
       </c>
       <c r="B6">
-        <v>95.174652557836396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40.779381795276358</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>149.37001427553867</v>
+        <v>49.984198554283594</v>
       </c>
       <c r="B7">
-        <v>102.67154217157351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42.000577968399398</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>170.8932301192836</v>
+        <v>53.18276235567275</v>
       </c>
       <c r="B8">
-        <v>110.29809349679101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43.161144401514861</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>194.73311864238482</v>
+        <v>56.338984020608287</v>
       </c>
       <c r="B9">
-        <v>118.07452690361883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44.277850042640729</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>221.27723852371085</v>
+        <v>59.481676590176505</v>
       </c>
       <c r="B10">
-        <v>125.99813816483909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45.361553930977962</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>250.9507883081364</v>
+        <v>62.631659406728659</v>
       </c>
       <c r="B11">
-        <v>134.04661829440482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46.419646910218191</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>284.23093220033189</v>
+        <v>65.804799248288134</v>
       </c>
       <c r="B12">
-        <v>142.17801678043591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47.457338741627972</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>321.66042839806977</v>
+        <v>69.013743450551743</v>
       </c>
       <c r="B13">
-        <v>150.32863238924617</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48.47839053846068</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>363.86205656024242</v>
+        <v>72.268969491665359</v>
       </c>
       <c r="B14">
-        <v>158.40926842420325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49.485557011192483</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>411.55483002827003</v>
+        <v>75.579452704619186</v>
       </c>
       <c r="B15">
-        <v>166.29990987215484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50.480866371297701</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>465.57281656215304</v>
+        <v>78.953108840770355</v>
       </c>
       <c r="B16">
-        <v>173.84266621131829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51.465804351320969</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>526.88739348644356</v>
+        <v>82.397097864751942</v>
       </c>
       <c r="B17">
-        <v>180.83266592418224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52.441438987121089</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>596.63386204558617</v>
+        <v>85.918038984951608</v>
       </c>
       <c r="B18">
-        <v>187.00643948272096</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53.408507382557943</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>676.14351949012485</v>
+        <v>89.52216709155249</v>
       </c>
       <c r="B19">
-        <v>192.02716081773431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54.367477261793802</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>766.98253451320784</v>
+        <v>93.215449466420566</v>
       </c>
       <c r="B20">
-        <v>195.46591381996029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55.318591313329222</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>870.99930250701914</v>
+        <v>97.003674929056302</v>
       </c>
       <c r="B21">
-        <v>196.77789127236366</v>
+        <v>56.261899483229222</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>100.89252347809344</v>
+      </c>
+      <c r="B22">
+        <v>57.19728262966364</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>104.88762189837912</v>
+      </c>
+      <c r="B23">
+        <v>58.124469848836441</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>108.99458912733199</v>
+      </c>
+      <c r="B24">
+        <v>59.043051068111666</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>113.21907406379417</v>
+      </c>
+      <c r="B25">
+        <v>59.95248602825864</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>117.56678775167535</v>
+      </c>
+      <c r="B26">
+        <v>60.852110455628562</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>122.04353135343807</v>
+      </c>
+      <c r="B27">
+        <v>61.74114000325261</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>126.65522096622743</v>
+      </c>
+      <c r="B28">
+        <v>62.618672383876778</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>131.40791007591852</v>
+      </c>
+      <c r="B29">
+        <v>63.483688006437795</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>136.3078102588162</v>
+      </c>
+      <c r="B30">
+        <v>64.33504934650658</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>141.36131060543835</v>
+      </c>
+      <c r="B31">
+        <v>65.171499221520918</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>146.57499624112324</v>
+      </c>
+      <c r="B32">
+        <v>65.991658096956058</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>151.95566624405137</v>
+      </c>
+      <c r="B33">
+        <v>66.794020515650274</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>157.51035120571686</v>
+      </c>
+      <c r="B34">
+        <v>67.57695071633492</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>163.24633063700662</v>
+      </c>
+      <c r="B35">
+        <v>68.338677486912218</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>169.17115039135641</v>
+      </c>
+      <c r="B36">
+        <v>69.077288281675621</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>175.29264025244257</v>
+      </c>
+      <c r="B37">
+        <v>69.790722618392721</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>181.61893181569837</v>
+      </c>
+      <c r="B38">
+        <v>70.47676476017179</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>188.1584767792888</v>
+      </c>
+      <c r="B39">
+        <v>71.133035677722674</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>194.92006575003342</v>
+      </c>
+      <c r="B40">
+        <v>71.756984279557756</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>201.91284766239221</v>
+      </c>
+      <c r="B41">
+        <v>72.345877890523028</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>209.14634990349086</v>
+      </c>
+      <c r="B42">
+        <v>72.896791952545868</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>216.63049923380748</v>
+      </c>
+      <c r="B43">
+        <v>73.406598915430521</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>224.37564359129667</v>
+      </c>
+      <c r="B44">
+        <v>73.871956279766238</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>232.39257486611743</v>
+      </c>
+      <c r="B45">
+        <v>74.289293748405129</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>240.69255273359596</v>
+      </c>
+      <c r="B46">
+        <v>74.654799437409409</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>249.28732963446228</v>
+      </c>
+      <c r="B47">
+        <v>74.964405091771809</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>258.18917699363305</v>
+      </c>
+      <c r="B48">
+        <v>75.213770245496974</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>267.41091277181204</v>
+      </c>
+      <c r="B49">
+        <v>75.398265259727282</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>276.96593044789893</v>
+      </c>
+      <c r="B50">
+        <v>75.512953166438791</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>286.86822953458977</v>
+      </c>
+      <c r="B51">
+        <v>75.55257023876068</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/moc_data.xlsx
+++ b/moc_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD81689-A5DE-4759-B42C-B73B72B7ECD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF857B1-2242-4421-A0DA-4849DED7628B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,10 +353,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>28.053080965393207</v>
+        <v>39.365706464189799</v>
       </c>
       <c r="B2">
-        <v>33.326211993745645</v>
+        <v>38.11014551832475</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -364,10 +364,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>35.28954224549372</v>
+        <v>62.765008631655562</v>
       </c>
       <c r="B3">
-        <v>36.318370013781482</v>
+        <v>46.919570615114807</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -375,10 +375,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>39.549820365004798</v>
+        <v>79.364680670871138</v>
       </c>
       <c r="B4">
-        <v>38.020342545362951</v>
+        <v>52.055506775948068</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -386,10 +386,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>43.263867767364857</v>
+        <v>97.650166465251743</v>
       </c>
       <c r="B5">
-        <v>39.46974498009412</v>
+        <v>56.920824984779429</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -397,10 +397,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>46.700719298093574</v>
+        <v>118.45005863336546</v>
       </c>
       <c r="B6">
-        <v>40.779381795276358</v>
+        <v>61.573014603894201</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -408,10 +408,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>49.984198554283594</v>
+        <v>142.50534947455409</v>
       </c>
       <c r="B7">
-        <v>42.000577968399398</v>
+        <v>65.951210169105394</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -419,10 +419,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>53.18276235567275</v>
+        <v>170.61635589633872</v>
       </c>
       <c r="B8">
-        <v>43.161144401514861</v>
+        <v>69.913443140218163</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>56.338984020608287</v>
+        <v>203.71566103977958</v>
       </c>
       <c r="B9">
-        <v>44.277850042640729</v>
+        <v>73.235098007295704</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -441,10 +441,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>59.481676590176505</v>
+        <v>242.92764690513127</v>
       </c>
       <c r="B10">
-        <v>45.361553930977962</v>
+        <v>75.591101401218879</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -452,10 +452,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>62.631659406728659</v>
+        <v>289.63259330958073</v>
       </c>
       <c r="B11">
-        <v>46.419646910218191</v>
+        <v>76.525505721488457</v>
       </c>
       <c r="C11">
         <v>0</v>

--- a/moc_data.xlsx
+++ b/moc_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF857B1-2242-4421-A0DA-4849DED7628B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5CD8F8-0F55-425D-BCA5-CE1556A2134E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -345,7 +345,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>21.463000000000001</v>
+        <v>0.91554979673419712</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -353,10 +353,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>39.365706464189799</v>
+        <v>2.7319877271484088</v>
       </c>
       <c r="B2">
-        <v>38.11014551832475</v>
+        <v>2.770582238602477</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -364,10 +364,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>62.765008631655562</v>
+        <v>9.3678286946182254</v>
       </c>
       <c r="B3">
-        <v>46.919570615114807</v>
+        <v>6.2016623206418959</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -375,10 +375,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>79.364680670871138</v>
+        <v>17.966003328827426</v>
       </c>
       <c r="B4">
-        <v>52.055506775948068</v>
+        <v>8.8448916236034751</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -386,10 +386,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>97.650166465251743</v>
+        <v>34.887788791697169</v>
       </c>
       <c r="B5">
-        <v>56.920824984779429</v>
+        <v>11.905765864578854</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -397,10 +397,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>118.45005863336546</v>
+        <v>70.347787255931053</v>
       </c>
       <c r="B6">
-        <v>61.573014603894201</v>
+        <v>14.023451864969777</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -408,10 +408,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>142.50534947455409</v>
+        <v>6.059965408209175</v>
       </c>
       <c r="B7">
-        <v>65.951210169105394</v>
+        <v>4.448361341129055</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -419,10 +419,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>170.61635589633872</v>
+        <v>7.157232236180171</v>
       </c>
       <c r="B8">
-        <v>69.913443140218163</v>
+        <v>4.9156311809408297</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>203.71566103977958</v>
+        <v>8.4261548769274324</v>
       </c>
       <c r="B9">
-        <v>73.235098007295704</v>
+        <v>5.4118446389588071</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -441,10 +441,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>242.92764690513127</v>
+        <v>9.9009790100478874</v>
       </c>
       <c r="B10">
-        <v>75.591101401218879</v>
+        <v>5.9384388526648806</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -452,10 +452,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>289.63259330958073</v>
+        <v>11.622221507509764</v>
       </c>
       <c r="B11">
-        <v>76.525505721488457</v>
+        <v>6.495737150027594</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -463,10 +463,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>65.804799248288134</v>
+        <v>13.638404506937265</v>
       </c>
       <c r="B12">
-        <v>47.457338741627972</v>
+        <v>7.0827177500186789</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>69.013743450551743</v>
+        <v>16.008112116272578</v>
       </c>
       <c r="B13">
-        <v>48.47839053846068</v>
+        <v>7.6966011941469592</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>72.268969491665359</v>
+        <v>18.80252277449496</v>
       </c>
       <c r="B14">
-        <v>49.485557011192483</v>
+        <v>8.3322358446771343</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>75.579452704619186</v>
+        <v>22.108587383267935</v>
       </c>
       <c r="B15">
-        <v>50.480866371297701</v>
+        <v>8.9812300796212092</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>78.953108840770355</v>
+        <v>26.033064240772912</v>
       </c>
       <c r="B16">
-        <v>51.465804351320969</v>
+        <v>9.630749496402057</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>82.397097864751942</v>
+        <v>30.707685215967203</v>
       </c>
       <c r="B17">
-        <v>52.441438987121089</v>
+        <v>10.261860208959559</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>85.918038984951608</v>
+        <v>36.295818155737557</v>
       </c>
       <c r="B18">
-        <v>53.408507382557943</v>
+        <v>10.847249108817184</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>89.52216709155249</v>
+        <v>43.001117417293955</v>
       </c>
       <c r="B19">
-        <v>54.367477261793802</v>
+        <v>11.348081553676359</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -551,10 +551,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>93.215449466420566</v>
+        <v>51.078832042371481</v>
       </c>
       <c r="B20">
-        <v>55.318591313329222</v>
+        <v>11.709656365329479</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>97.003674929056302</v>
+        <v>60.850690936652072</v>
       </c>
       <c r="B21">
-        <v>56.261899483229222</v>
+        <v>11.85537261237034</v>
       </c>
       <c r="C21">
         <v>0</v>
